--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201423.268637707</v>
+        <v>2199027.612632525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>42.7673471940124</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -677,7 +677,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>70.71413297788668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.31443144443453</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -874,10 +874,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>97.91619205212849</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
@@ -914,7 +914,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>19.05685276671081</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.8159881510875</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>41.13965778568816</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>5.938671778665441</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1184,22 +1184,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.4734099989305</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.2325059883782</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>181.0919561226081</v>
+        <v>228.7071364731966</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504016</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.18447438924</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487319</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695412</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.6427030833203</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="H37" t="n">
-        <v>139.368773976748</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>175.8628696806972</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.952612783695</v>
+        <v>925.303617584568</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.952612783695</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.952612783695</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4340,13 +4340,13 @@
         <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1950.720900313514</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.28901624584</v>
+        <v>2225.837119630149</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068626</v>
+        <v>2426.141446919252</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522573</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179002</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908888</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.091944759507</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.952612783695</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,19 +4413,19 @@
         <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433267</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928755</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.6898028207301</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="C4" t="n">
-        <v>198.6898028207301</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="D4" t="n">
-        <v>198.6898028207301</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>314.6285669616252</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1256.339247296037</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1256.339247296037</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1031.928088071475</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>742.7914610635776</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>488.1069728576907</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="W4" t="n">
-        <v>198.6898028207301</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="X4" t="n">
-        <v>198.6898028207301</v>
+        <v>496.2770317918649</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6898028207301</v>
+        <v>496.2770317918649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1247.782604635669</v>
+        <v>1598.49297013392</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.782604635669</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.782604635669</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
         <v>836.796699846061</v>
@@ -4559,19 +4559,19 @@
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502977</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159406</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.404814889292</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.404814889292</v>
+        <v>1988.632302109732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1247.782604635669</v>
+        <v>1598.49297013392</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>797.9970924135762</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.302981905902</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1480.804272147217</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>2121.82748176711</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.625985748637</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C7" t="n">
-        <v>198.6898028207301</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
         <v>51.79985532281972</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1605.428460269345</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1382.493885811326</v>
+        <v>1342.413983554585</v>
       </c>
       <c r="U7" t="n">
-        <v>1093.376108821724</v>
+        <v>1053.296206564983</v>
       </c>
       <c r="V7" t="n">
-        <v>838.6916206158373</v>
+        <v>798.611718359096</v>
       </c>
       <c r="W7" t="n">
-        <v>549.2744505788767</v>
+        <v>798.611718359096</v>
       </c>
       <c r="X7" t="n">
-        <v>549.2744505788767</v>
+        <v>570.6221674610787</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.2744505788767</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1956.758668740671</v>
+        <v>890.6280335193146</v>
       </c>
       <c r="C8" t="n">
-        <v>1587.796151800259</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135503</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477376</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>2007.00177902632</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.81558556073</v>
+        <v>1654.233123756206</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.81558556073</v>
+        <v>1280.767365495126</v>
       </c>
       <c r="Y8" t="n">
-        <v>2343.358508804793</v>
+        <v>890.6280335193146</v>
       </c>
     </row>
     <row r="9">
@@ -4866,19 +4866,19 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
@@ -4890,13 +4890,13 @@
         <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1219.783862516113</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1941.516476169894</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4990,22 +4990,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>880.2468305003707</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>649.2295209314852</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>421.239970033468</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>200.4473908899379</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.847013829826</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,34 +5768,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637304</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452619</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718135</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.06254548756</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648812</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611851</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,16 +6953,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F37" t="n">
-        <v>483.8760050556308</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G37" t="n">
-        <v>316.6799057705107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>188.8486065996792</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>62.22611909361538</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310593</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>87.99713246344936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200.7458546176087</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326897</v>
+        <v>309.1863928326896</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>74.65481927719924</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,16 +8538,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>256.7871481632765</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870218</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>256.7871481632769</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822619</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218827</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.97276993489203</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194945</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9259388694759139</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>41.54258064659109</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673672</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752548</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752543</v>
@@ -26366,13 +26366,13 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457513</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042354</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,31 +26424,31 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695066</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695066</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.48053169504</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695128</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695037</v>
-      </c>
       <c r="L4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695077</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26473,10 +26473,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-593558.5664359439</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749553</v>
+        <v>199943.079274955</v>
       </c>
       <c r="D6" t="n">
-        <v>372707.4390648474</v>
+        <v>372707.4390648479</v>
       </c>
       <c r="E6" t="n">
-        <v>-23117.59332609826</v>
+        <v>-23152.33125153475</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.2744196523</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196523</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.2744196523</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196526</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="J6" t="n">
-        <v>308357.2575936043</v>
+        <v>308322.5196681687</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196526</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="M6" t="n">
-        <v>346886.817515417</v>
+        <v>346852.0795899812</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.274419652</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196521</v>
+        <v>477736.5364942165</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26793,10 +26793,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644025</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644025</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644025</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5055445769951</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>299.0169677005824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,7 +27555,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.16902860753525</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>154.2214512716995</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>308.6954057034241</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>108.4219505049661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>153.345511548403</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.766556934773</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>80.08549594683024</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.0054326676754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28062,16 +28062,16 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105.4310422139829</v>
+        <v>57.81586186339439</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-5.648353952253364e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31285,25 +31285,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31312,7 +31312,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31364,22 +31364,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31473,10 +31473,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672726</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129198</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197792</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357562001</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963288</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34708,16 +34708,16 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1762099220059</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>165.5063830522568</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428116967</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>354.6027198326289</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34796,7 +34796,7 @@
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>501.0609547350983</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>326.6515140903496</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297623</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35109,10 +35109,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>626.7930971454234</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>508.7838429764271</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193524</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507077</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396427</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385608</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066203</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462695</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753348</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728667</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164546</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998913</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
